--- a/xlsx/网球_intext.xlsx
+++ b/xlsx/网球_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
   <si>
     <t>网球</t>
   </si>
@@ -29,31 +29,31 @@
     <t>温布尔登网球锦标赛</t>
   </si>
   <si>
-    <t>政策_政策_美國_网球</t>
+    <t>政策_政策_美国_网球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B6%B2%E7%90%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>國際網球總會</t>
+    <t>国际网球总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%90%83_(%E7%90%83)</t>
   </si>
   <si>
-    <t>網球 (球)</t>
+    <t>网球 (球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%90%83%E6%8B%8D</t>
   </si>
   <si>
-    <t>網球拍</t>
+    <t>网球拍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>網球場</t>
+    <t>网球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%B2%E7%90%83%E5%85%AC%E9%96%8B%E8%B3%BD</t>
   </si>
   <si>
-    <t>美國網球公開賽</t>
+    <t>美国网球公开赛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jimmy_Van_Alen</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>遊戲</t>
+    <t>游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%A9%E5%AE%B6</t>
@@ -173,19 +173,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%83%E9%A0%93%E7%B6%B2%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>溫布頓網球錦標賽</t>
+    <t>温布顿网球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%97%E5%B2%9B%E5%B7%9E</t>
@@ -197,25 +197,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%83%E9%A0%93%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>溫布頓錦標賽</t>
+    <t>温布顿锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B6%B2%E7%90%83%E5%85%AC%E9%96%8B%E8%B3%BD</t>
   </si>
   <si>
-    <t>法國網球公開賽</t>
+    <t>法国网球公开赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E7%B6%B2%E7%90%83%E5%85%AC%E9%96%8B%E8%B3%BD</t>
   </si>
   <si>
-    <t>澳洲網球公開賽</t>
+    <t>澳洲网球公开赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%B6%AD%E6%96%AF%E7%9B%83</t>
   </si>
   <si>
-    <t>台維斯盃</t>
+    <t>台维斯杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E7%8F%8A%C2%B7%E6%9C%97%E6%A0%BC%E4%BC%A6</t>
@@ -245,19 +245,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E5%9C%B0%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>草地球場</t>
+    <t>草地球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%9C%9F%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>紅土球場</t>
+    <t>红土球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E5%9C%B0%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>硬地球場</t>
+    <t>硬地球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%90%83%E5%8F%91%E7%90%83</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E6%A4%85%E7%B6%B2%E7%90%83</t>
   </si>
   <si>
-    <t>輪椅網球</t>
+    <t>轮椅网球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%93%8A</t>
   </si>
   <si>
-    <t>平擊</t>
+    <t>平击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -293,33 +293,24 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%A1%E8%86%A0</t>
   </si>
   <si>
-    <t>橡膠</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%AF%AF%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>地毯球場</t>
+    <t>地毯球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%A2%A9%E7%9B%83</t>
   </si>
   <si>
-    <t>海碩盃</t>
+    <t>海硕杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E7%BD%91%E7%90%83%E5%85%AC%E5%BC%80%E8%B5%9B</t>
   </si>
   <si>
-    <t>法国网球公开赛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BD%91%E7%90%83%E5%85%AC%E5%BC%80%E8%B5%9B</t>
   </si>
   <si>
-    <t>美国网球公开赛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E7%BD%91%E7%90%83%E5%85%AC%E5%BC%80%E8%B5%9B</t>
   </si>
   <si>
@@ -341,9 +332,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
   </si>
   <si>
@@ -359,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
@@ -371,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/ATP%E4%B8%96%E7%95%8C%E5%B7%A1%E8%BF%B4%E8%B3%BD%E5%A4%A7%E5%B8%AB1000%E8%B3%BD</t>
   </si>
   <si>
-    <t>ATP世界巡迴賽大師1000賽</t>
+    <t>ATP世界巡回赛大师1000赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ATP%E4%B8%96%E7%95%8C%E5%B7%A1%E5%9B%9E%E8%B5%9B%E6%80%BB%E5%86%B3%E8%B5%9B</t>
@@ -383,85 +371,85 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E7%B6%B2%E7%90%83%E8%81%AF%E5%90%88%E6%9C%83</t>
   </si>
   <si>
-    <t>職業網球聯合會</t>
+    <t>职业网球联合会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%9C%B0%E5%8D%A1%E7%BE%85%E5%A4%A7%E5%B8%AB%E8%B3%BD</t>
   </si>
   <si>
-    <t>蒙地卡羅大師賽</t>
+    <t>蒙地卡罗大师赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%A0%A1%E5%A4%A7%E5%B8%AB%E8%B3%BD</t>
   </si>
   <si>
-    <t>漢堡大師賽</t>
+    <t>汉堡大师赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C%E5%A4%A7%E5%B8%AB%E8%B3%BD</t>
   </si>
   <si>
-    <t>馬德里大師賽</t>
+    <t>马德里大师赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%A4%A7%E5%B8%AB%E8%B3%BD</t>
   </si>
   <si>
-    <t>上海大師賽</t>
+    <t>上海大师赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B6%AD%E7%88%BE%E6%96%AF%E5%A4%A7%E5%B8%AB%E8%B3%BD</t>
   </si>
   <si>
-    <t>印第安維爾斯大師賽</t>
+    <t>印第安维尔斯大师赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B6%AD%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安維爾斯</t>
+    <t>印第安维尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86%E5%A4%A7%E5%B8%AB%E8%B3%BD</t>
   </si>
   <si>
-    <t>邁阿密大師賽</t>
+    <t>迈阿密大师赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86</t>
   </si>
   <si>
-    <t>邁阿密</t>
+    <t>迈阿密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%9C%B0%E5%8D%A1%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙地卡羅</t>
+    <t>蒙地卡罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A7%E5%B8%AB%E8%B3%BD</t>
   </si>
   <si>
-    <t>羅馬大師賽</t>
+    <t>罗马大师赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -473,13 +461,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C</t>
   </si>
   <si>
-    <t>馬德里</t>
+    <t>马德里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%A4%A7%E5%B8%AB%E8%B3%BD</t>
   </si>
   <si>
-    <t>加拿大大師賽</t>
+    <t>加拿大大师赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -491,19 +479,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%A9%81</t>
   </si>
   <si>
-    <t>蒙特婁</t>
+    <t>蒙特娄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A</t>
   </si>
   <si>
-    <t>多倫多</t>
+    <t>多伦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E6%8F%90%E5%A4%A7%E5%B8%AB%E8%B3%BD</t>
   </si>
   <si>
-    <t>辛辛那提大師賽</t>
+    <t>辛辛那提大师赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E6%8F%90</t>
@@ -527,15 +515,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%A4%A7%E5%B8%AB%E8%B3%BD</t>
   </si>
   <si>
-    <t>巴黎大師賽</t>
+    <t>巴黎大师赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%8C%E4%B8%9A%E7%BD%91%E7%90%83%E8%81%94%E5%90%88%E4%BC%9A</t>
   </si>
   <si>
-    <t>职业网球联合会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%AD%90%E7%BD%91%E7%90%83%E8%81%94%E5%90%88%E4%BC%9A</t>
   </si>
   <si>
@@ -587,13 +572,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%C2%B7%E6%A0%BC%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>山姆·格羅斯</t>
+    <t>山姆·格罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%90%E7%88%BE%C2%B7%E6%8B%BF%E5%BA%A6</t>
   </si>
   <si>
-    <t>拉斐爾·拿度</t>
+    <t>拉斐尔·拿度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E9%9B%B7%E5%A8%9C%C2%B7%E5%A8%81%E5%BB%89%E5%A7%86%E6%96%AF</t>
@@ -605,25 +590,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%90%83%E6%88%B0%E7%95%A5</t>
   </si>
   <si>
-    <t>網球戰略</t>
+    <t>网球战略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E4%BD%8F%E6%84%9B%E6%83%85</t>
   </si>
   <si>
-    <t>網住愛情</t>
+    <t>网住爱情</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%83%85%E6%B1%BA%E5%8B%9D%E9%BB%9E</t>
   </si>
   <si>
-    <t>愛情決勝點</t>
+    <t>爱情决胜点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%90%83%E7%94%9C%E5%BF%83</t>
   </si>
   <si>
-    <t>網球甜心</t>
+    <t>网球甜心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Happy!</t>
@@ -635,85 +620,82 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%A6%E6%BE%A4%E7%9B%B4%E6%A8%B9</t>
   </si>
   <si>
-    <t>浦澤直樹</t>
+    <t>浦泽直树</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%90%83%E7%8E%8B%E5%AD%90</t>
   </si>
   <si>
-    <t>網球王子</t>
+    <t>网球王子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B1%E6%96%90%E5%89%9B</t>
   </si>
   <si>
-    <t>許斐剛</t>
+    <t>许斐刚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Baby_Steps_~%E7%B6%B2%E7%90%83%E5%84%AA%E7%AD%89%E7%94%9F~</t>
   </si>
   <si>
-    <t>Baby Steps ~網球優等生~</t>
+    <t>Baby Steps ~网球优等生~</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B7%E7%B3%8A%E8%BB%9F%E7%B6%B2%E7%A4%BE</t>
   </si>
   <si>
-    <t>迷糊軟網社</t>
+    <t>迷糊软网社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%90%83%E8%A1%93%E8%AA%9E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>網球術語列表</t>
+    <t>网球术语列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%B6%B2%E7%90%83%E4%B8%BB%E9%A1%8C</t>
   </si>
   <si>
-    <t>Template talk-網球主題</t>
+    <t>Template talk-网球主题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%90%83</t>
   </si>
   <si>
-    <t>網球</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%BB%BF%E8%B2%AB_(%E7%B6%B2%E7%90%83)</t>
   </si>
   <si>
-    <t>大滿貫 (網球)</t>
+    <t>大满贯 (网球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ATP%E6%8C%91%E6%88%B0%E8%B3%BD</t>
   </si>
   <si>
-    <t>ATP挑戰賽</t>
+    <t>ATP挑战赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WTA_125K%E7%B3%BB%E5%88%97%E8%B3%BD</t>
   </si>
   <si>
-    <t>WTA 125K系列賽</t>
+    <t>WTA 125K系列赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ITF%E5%A5%B3%E5%AD%90%E5%B7%A1%E8%BF%B4%E8%B3%BD</t>
   </si>
   <si>
-    <t>ITF女子巡迴賽</t>
+    <t>ITF女子巡回赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Ace%E7%90%83</t>
@@ -725,19 +707,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E7%99%BC%E5%A4%B1%E8%AA%A4</t>
   </si>
   <si>
-    <t>雙發失誤</t>
+    <t>双发失误</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%99%BC</t>
   </si>
   <si>
-    <t>破發</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%93%8A%E7%90%83</t>
   </si>
   <si>
-    <t>平擊球</t>
+    <t>平击球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%97%8B%E7%90%83</t>
@@ -749,13 +728,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%90%83%E4%B8%8A%E7%B6%B2</t>
   </si>
   <si>
-    <t>發球上網</t>
+    <t>发球上网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A5%E5%9C%B0%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>泥地球場</t>
+    <t>泥地球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%B0%E7%9C%BC%E7%B3%BB%E7%BB%9F</t>
@@ -767,37 +746,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E6%9C%83%E7%9B%83</t>
   </si>
   <si>
-    <t>協會盃</t>
+    <t>协会杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E6%99%AE%E6%9B%BC%E7%9B%83</t>
   </si>
   <si>
-    <t>霍普曼盃</t>
+    <t>霍普曼杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B6%B2%E7%90%83%E8%B6%85%E7%B4%9A%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>國際網球超級聯賽</t>
+    <t>国际网球超级联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83%E7%B6%B2%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>夏季奧林匹克運動會網球比賽</t>
+    <t>夏季奥林匹克运动会网球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%81%8B%E5%8B%95%E6%9C%83%E7%B6%B2%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲運動會網球比賽</t>
+    <t>亚洲运动会网球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%90%83%E8%B3%BD%E4%BA%8B%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>網球賽事委員會</t>
+    <t>网球赛事委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E7%AB%A5</t>
@@ -815,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -839,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2805,7 +2784,7 @@
         <v>91</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2831,10 +2810,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" t="s">
         <v>93</v>
-      </c>
-      <c r="F57" t="s">
-        <v>94</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2860,10 +2839,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" t="s">
         <v>95</v>
-      </c>
-      <c r="F58" t="s">
-        <v>96</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2947,10 +2926,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F61" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2976,10 +2955,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F62" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="G62" t="n">
         <v>4</v>
@@ -3005,10 +2984,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3034,10 +3013,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F64" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -3063,10 +3042,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F65" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3092,10 +3071,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F66" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="G66" t="n">
         <v>7</v>
@@ -3121,10 +3100,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F67" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -3150,10 +3129,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3179,10 +3158,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F69" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G69" t="n">
         <v>10</v>
@@ -3208,10 +3187,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F70" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3237,10 +3216,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F71" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -3266,10 +3245,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F72" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3295,10 +3274,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F73" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3324,10 +3303,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F74" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3353,10 +3332,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F75" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3382,10 +3361,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F76" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3411,10 +3390,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F77" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3440,10 +3419,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F78" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3469,10 +3448,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F79" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3498,10 +3477,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F80" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3527,10 +3506,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F81" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3556,10 +3535,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F82" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3585,10 +3564,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F83" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -3614,10 +3593,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F84" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3643,10 +3622,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F85" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3672,10 +3651,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F86" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3701,10 +3680,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F87" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3730,10 +3709,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F88" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3759,10 +3738,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F89" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G89" t="n">
         <v>4</v>
@@ -3788,10 +3767,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F90" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3817,10 +3796,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F91" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -3846,10 +3825,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F92" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3875,10 +3854,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F93" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3904,10 +3883,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F94" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3933,10 +3912,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F95" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -3962,10 +3941,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F96" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3991,10 +3970,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F97" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -4020,10 +3999,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F98" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4049,10 +4028,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F99" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4078,10 +4057,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F100" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4107,10 +4086,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F101" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4136,10 +4115,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F102" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4165,10 +4144,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F103" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4194,10 +4173,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F104" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4223,10 +4202,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F105" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G105" t="n">
         <v>5</v>
@@ -4252,10 +4231,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F106" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G106" t="n">
         <v>5</v>
@@ -4281,10 +4260,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F107" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4310,10 +4289,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F108" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4339,10 +4318,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F109" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4368,10 +4347,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F110" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4397,10 +4376,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F111" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4426,10 +4405,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F112" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4455,10 +4434,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F113" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4484,10 +4463,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F114" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4513,10 +4492,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F115" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4542,10 +4521,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F116" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4571,10 +4550,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F117" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4600,10 +4579,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F118" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4629,10 +4608,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F119" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4658,10 +4637,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F120" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4687,10 +4666,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F121" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4716,10 +4695,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F122" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4745,10 +4724,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F123" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4774,10 +4753,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F124" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G124" t="n">
         <v>5</v>
@@ -4803,10 +4782,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F125" t="s">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>82</v>
@@ -4832,10 +4811,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F126" t="s">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4861,10 +4840,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F127" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -4890,10 +4869,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F128" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G128" t="n">
         <v>4</v>
@@ -4919,10 +4898,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F129" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G129" t="n">
         <v>7</v>
@@ -4948,10 +4927,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F130" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4977,10 +4956,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F131" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5006,10 +4985,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F132" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5035,10 +5014,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F133" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5064,10 +5043,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F134" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5093,10 +5072,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F135" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5122,10 +5101,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F136" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5151,10 +5130,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F137" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -5209,10 +5188,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F139" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G139" t="n">
         <v>11</v>
@@ -5238,10 +5217,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F140" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5296,10 +5275,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F142" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5412,10 +5391,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F146" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5470,10 +5449,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F148" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5499,10 +5478,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F149" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5528,10 +5507,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F150" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5557,10 +5536,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F151" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5586,10 +5565,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F152" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5615,10 +5594,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F153" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5644,10 +5623,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F154" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -5673,10 +5652,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F155" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5702,10 +5681,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F156" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -5731,10 +5710,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F157" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5760,10 +5739,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F158" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5789,10 +5768,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F159" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5818,10 +5797,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F160" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>

--- a/xlsx/网球_intext.xlsx
+++ b/xlsx/网球_intext.xlsx
@@ -29,7 +29,7 @@
     <t>温布尔登网球锦标赛</t>
   </si>
   <si>
-    <t>政策_政策_美國_网球</t>
+    <t>体育运动_体育运动_体育_网球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B6%B2%E7%90%83%E7%B8%BD%E6%9C%83</t>
